--- a/3_Analysis/table5_COPR_at_allenv.xlsx
+++ b/3_Analysis/table5_COPR_at_allenv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boterolab1/Box Sync/CB_VF_Shared/Wet_Lab/Projects/FS/FS_Analysis/3_Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0440E962-9748-B248-9FBC-48036215084B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0ABFB52-B7F8-594A-8335-A179676701D3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7160" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="5" xr2:uid="{A05F311D-05B3-794B-B4C7-FC8F732A2BEC}"/>
+    <workbookView xWindow="4660" yWindow="800" windowWidth="25040" windowHeight="14500" xr2:uid="{577D3ACE-D42F-3044-B12F-EDE23D9AAC63}"/>
   </bookViews>
   <sheets>
     <sheet name="table5_COPR_at_allenv_inc_raw" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="9">
   <si>
     <t>n_tot</t>
   </si>
@@ -63,30 +63,6 @@
   </si>
   <si>
     <t>EH0</t>
-  </si>
-  <si>
-    <t>0000</t>
-  </si>
-  <si>
-    <t>0100</t>
-  </si>
-  <si>
-    <t>0010</t>
-  </si>
-  <si>
-    <t>0001</t>
-  </si>
-  <si>
-    <t>0101</t>
-  </si>
-  <si>
-    <t>0110</t>
-  </si>
-  <si>
-    <t>0011</t>
-  </si>
-  <si>
-    <t>1110</t>
   </si>
 </sst>
 </file>
@@ -122,9 +98,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,17 +413,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6180767E-85F0-0946-8F3C-73DC76309BFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F2656B-9D06-BB41-94F2-781057E61846}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
@@ -474,8 +444,8 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
+      <c r="A2">
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -500,7 +470,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>1000</v>
       </c>
       <c r="B3">
@@ -526,35 +496,35 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>10</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="B5">
         <v>0</v>
       </c>
@@ -578,8 +548,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
+      <c r="A6">
+        <v>1</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -604,7 +574,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>1100</v>
       </c>
       <c r="B7">
@@ -630,7 +600,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>1010</v>
       </c>
       <c r="B8">
@@ -656,7 +626,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>1001</v>
       </c>
       <c r="B9">
@@ -682,8 +652,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
+      <c r="A10">
+        <v>101</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -708,8 +678,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
+      <c r="A11">
+        <v>110</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -734,8 +704,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
+      <c r="A12">
+        <v>11</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -760,7 +730,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="A13">
         <v>1110</v>
       </c>
       <c r="B13">
@@ -786,7 +756,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>1101</v>
       </c>
       <c r="B14">
@@ -812,7 +782,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="A15">
         <v>1011</v>
       </c>
       <c r="B15">
@@ -838,8 +808,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
+      <c r="A16">
+        <v>111</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -864,7 +834,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="A17">
         <v>1111</v>
       </c>
       <c r="B17">
@@ -890,17 +860,17 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>1</v>
       </c>
       <c r="B18">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E18">
         <v>13</v>
@@ -912,21 +882,21 @@
         <v>9</v>
       </c>
       <c r="H18">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>0</v>
       </c>
       <c r="B19">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C19">
         <v>32</v>
       </c>
       <c r="D19">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>32</v>
@@ -938,7 +908,7 @@
         <v>32</v>
       </c>
       <c r="H19">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -947,17 +917,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE9642D-939F-CC40-96D6-2ED98E3ACECC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C166C5-E1E0-8D4B-AA14-7CA82E78A5CD}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
@@ -983,8 +948,8 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
+      <c r="A2">
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -993,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.1E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1009,7 +974,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>1000</v>
       </c>
       <c r="B3">
@@ -1035,35 +1000,35 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>10</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="B5">
         <v>0</v>
       </c>
@@ -1087,8 +1052,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
+      <c r="A6">
+        <v>1</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1113,17 +1078,17 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>1100</v>
       </c>
       <c r="B7">
-        <v>3.1E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="C7">
         <v>6.2E-2</v>
       </c>
       <c r="D7">
-        <v>3.1E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1139,7 +1104,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>1010</v>
       </c>
       <c r="B8">
@@ -1165,7 +1130,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>1001</v>
       </c>
       <c r="B9">
@@ -1191,8 +1156,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
+      <c r="A10">
+        <v>101</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1217,8 +1182,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
+      <c r="A11">
+        <v>110</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1243,8 +1208,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
+      <c r="A12">
+        <v>11</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1265,15 +1230,15 @@
         <v>0.25</v>
       </c>
       <c r="H12">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1110</v>
+      </c>
+      <c r="B13">
         <v>6.2E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>1110</v>
-      </c>
-      <c r="B13">
-        <v>3.1E-2</v>
       </c>
       <c r="C13">
         <v>3.1E-2</v>
@@ -1295,17 +1260,17 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>1101</v>
       </c>
       <c r="B14">
-        <v>9.4E-2</v>
+        <v>0.188</v>
       </c>
       <c r="C14">
         <v>0.188</v>
       </c>
       <c r="D14">
-        <v>3.1E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="E14">
         <v>6.2E-2</v>
@@ -1321,7 +1286,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="A15">
         <v>1011</v>
       </c>
       <c r="B15">
@@ -1347,8 +1312,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
+      <c r="A16">
+        <v>111</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1369,21 +1334,21 @@
         <v>0.28100000000000003</v>
       </c>
       <c r="H16">
-        <v>9.4E-2</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="A17">
         <v>1111</v>
       </c>
       <c r="B17">
-        <v>9.4E-2</v>
+        <v>0.188</v>
       </c>
       <c r="C17">
         <v>6.2E-2</v>
       </c>
       <c r="D17">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="E17">
         <v>0.312</v>
@@ -1395,21 +1360,21 @@
         <v>0.188</v>
       </c>
       <c r="H17">
-        <v>0.188</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>1</v>
       </c>
       <c r="B18">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="C18">
         <v>0.53100000000000003</v>
       </c>
       <c r="D18">
-        <v>0.78100000000000003</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="E18">
         <v>0.40600000000000003</v>
@@ -1421,21 +1386,21 @@
         <v>0.28100000000000003</v>
       </c>
       <c r="H18">
-        <v>0.65600000000000003</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>0</v>
       </c>
       <c r="B19">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C19">
         <v>32</v>
       </c>
       <c r="D19">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>32</v>
@@ -1447,7 +1412,7 @@
         <v>32</v>
       </c>
       <c r="H19">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1456,17 +1421,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B465D36-E483-E14A-B017-E38DAE71CBA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB558F30-2775-2A41-B84A-5C77D0539BBD}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
@@ -1492,8 +1452,8 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
+      <c r="A2">
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1518,7 +1478,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>1000</v>
       </c>
       <c r="B3">
@@ -1544,35 +1504,35 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>10</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="B5">
         <v>0</v>
       </c>
@@ -1596,8 +1556,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
+      <c r="A6">
+        <v>1</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1622,7 +1582,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>1100</v>
       </c>
       <c r="B7">
@@ -1648,7 +1608,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>1010</v>
       </c>
       <c r="B8">
@@ -1674,7 +1634,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>1001</v>
       </c>
       <c r="B9">
@@ -1700,8 +1660,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
+      <c r="A10">
+        <v>101</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1726,8 +1686,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
+      <c r="A11">
+        <v>110</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1752,8 +1712,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
+      <c r="A12">
+        <v>11</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1778,7 +1738,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="A13">
         <v>1110</v>
       </c>
       <c r="B13">
@@ -1804,7 +1764,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>1101</v>
       </c>
       <c r="B14">
@@ -1830,7 +1790,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="A15">
         <v>1011</v>
       </c>
       <c r="B15">
@@ -1856,8 +1816,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
+      <c r="A16">
+        <v>111</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1882,7 +1842,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="A17">
         <v>1111</v>
       </c>
       <c r="B17">
@@ -1908,17 +1868,17 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>1</v>
       </c>
       <c r="B18">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E18">
         <v>13</v>
@@ -1930,21 +1890,21 @@
         <v>9</v>
       </c>
       <c r="H18">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>0</v>
       </c>
       <c r="B19">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C19">
         <v>32</v>
       </c>
       <c r="D19">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>32</v>
@@ -1956,7 +1916,7 @@
         <v>32</v>
       </c>
       <c r="H19">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1965,17 +1925,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F4C145-7BED-7248-AC13-875DBB3EEEB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6269642-F1C8-E648-8D39-66676F0BC182}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
@@ -2001,8 +1956,8 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
+      <c r="A2">
+        <v>0</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -2027,7 +1982,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>1000</v>
       </c>
       <c r="B3">
@@ -2053,8 +2008,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
+      <c r="A4">
+        <v>100</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2079,8 +2034,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
+      <c r="A5">
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2105,8 +2060,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
+      <c r="A6">
+        <v>1</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2131,7 +2086,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>1100</v>
       </c>
       <c r="B7">
@@ -2157,7 +2112,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>1010</v>
       </c>
       <c r="B8">
@@ -2183,7 +2138,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>1001</v>
       </c>
       <c r="B9">
@@ -2209,8 +2164,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
+      <c r="A10">
+        <v>101</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2235,8 +2190,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
+      <c r="A11">
+        <v>110</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2261,8 +2216,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
+      <c r="A12">
+        <v>11</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2287,7 +2242,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="A13">
         <v>1110</v>
       </c>
       <c r="B13">
@@ -2313,7 +2268,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>1101</v>
       </c>
       <c r="B14">
@@ -2339,7 +2294,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="A15">
         <v>1011</v>
       </c>
       <c r="B15">
@@ -2365,8 +2320,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
+      <c r="A16">
+        <v>111</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2391,7 +2346,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="A17">
         <v>1111</v>
       </c>
       <c r="B17">
@@ -2417,17 +2372,17 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>1</v>
       </c>
       <c r="B18">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E18">
         <v>13</v>
@@ -2439,21 +2394,21 @@
         <v>9</v>
       </c>
       <c r="H18">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>0</v>
       </c>
       <c r="B19">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C19">
         <v>32</v>
       </c>
       <c r="D19">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>32</v>
@@ -2465,7 +2420,7 @@
         <v>32</v>
       </c>
       <c r="H19">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2474,17 +2429,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A8DC82-1003-7E43-8D13-5D8F7CCEAD53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5CA68D-3946-D041-896A-4F594B07394F}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
@@ -2510,17 +2460,17 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
+      <c r="A2">
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C2">
         <v>0.46899999999999997</v>
       </c>
       <c r="D2">
-        <v>0.188</v>
+        <v>0.375</v>
       </c>
       <c r="E2">
         <v>0.56200000000000006</v>
@@ -2532,11 +2482,11 @@
         <v>0.5</v>
       </c>
       <c r="H2">
-        <v>0.312</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>1000</v>
       </c>
       <c r="B3">
@@ -2558,12 +2508,12 @@
         <v>0.188</v>
       </c>
       <c r="H3">
-        <v>3.1E-2</v>
+        <v>6.2E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
+      <c r="A4">
+        <v>100</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2572,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.1E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="E4">
         <v>3.1E-2</v>
@@ -2588,8 +2538,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
+      <c r="A5">
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2614,8 +2564,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
+      <c r="A6">
+        <v>1</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2640,7 +2590,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>1100</v>
       </c>
       <c r="B7">
@@ -2666,7 +2616,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>1010</v>
       </c>
       <c r="B8">
@@ -2692,7 +2642,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>1001</v>
       </c>
       <c r="B9">
@@ -2718,8 +2668,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
+      <c r="A10">
+        <v>101</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2744,8 +2694,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
+      <c r="A11">
+        <v>110</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2770,8 +2720,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
+      <c r="A12">
+        <v>11</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2796,7 +2746,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="A13">
         <v>1110</v>
       </c>
       <c r="B13">
@@ -2822,7 +2772,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>1101</v>
       </c>
       <c r="B14">
@@ -2848,7 +2798,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="A15">
         <v>1011</v>
       </c>
       <c r="B15">
@@ -2874,8 +2824,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
+      <c r="A16">
+        <v>111</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2900,7 +2850,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="A17">
         <v>1111</v>
       </c>
       <c r="B17">
@@ -2926,17 +2876,17 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>1</v>
       </c>
       <c r="B18">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="C18">
         <v>0.53100000000000003</v>
       </c>
       <c r="D18">
-        <v>0.78100000000000003</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="E18">
         <v>0.40600000000000003</v>
@@ -2948,21 +2898,21 @@
         <v>0.28100000000000003</v>
       </c>
       <c r="H18">
-        <v>0.65600000000000003</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>0</v>
       </c>
       <c r="B19">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C19">
         <v>32</v>
       </c>
       <c r="D19">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>32</v>
@@ -2974,7 +2924,7 @@
         <v>32</v>
       </c>
       <c r="H19">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2983,17 +2933,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C160012C-054D-3147-92B2-F59C1A6AC305}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C90E27B-93CC-BE43-9E44-AD46FB6A0FE0}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
@@ -3019,8 +2964,8 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
+      <c r="A2">
+        <v>0</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3045,7 +2990,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>1000</v>
       </c>
       <c r="B3">
@@ -3071,8 +3016,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
+      <c r="A4">
+        <v>100</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3097,8 +3042,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
+      <c r="A5">
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3123,8 +3068,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
+      <c r="A6">
+        <v>1</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3149,7 +3094,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>1100</v>
       </c>
       <c r="B7">
@@ -3175,7 +3120,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>1010</v>
       </c>
       <c r="B8">
@@ -3201,7 +3146,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>1001</v>
       </c>
       <c r="B9">
@@ -3227,8 +3172,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
+      <c r="A10">
+        <v>101</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3253,8 +3198,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
+      <c r="A11">
+        <v>110</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3279,8 +3224,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
+      <c r="A12">
+        <v>11</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3305,7 +3250,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="A13">
         <v>1110</v>
       </c>
       <c r="B13">
@@ -3331,7 +3276,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>1101</v>
       </c>
       <c r="B14">
@@ -3357,7 +3302,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="A15">
         <v>1011</v>
       </c>
       <c r="B15">
@@ -3383,8 +3328,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
+      <c r="A16">
+        <v>111</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3409,7 +3354,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="A17">
         <v>1111</v>
       </c>
       <c r="B17">
@@ -3435,17 +3380,17 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>1</v>
       </c>
       <c r="B18">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E18">
         <v>13</v>
@@ -3457,21 +3402,21 @@
         <v>9</v>
       </c>
       <c r="H18">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>0</v>
       </c>
       <c r="B19">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C19">
         <v>32</v>
       </c>
       <c r="D19">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>32</v>
@@ -3483,7 +3428,7 @@
         <v>32</v>
       </c>
       <c r="H19">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
